--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GiaThanh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="31" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -251,11 +251,68 @@
   <si>
     <t>Còn BH</t>
   </si>
+  <si>
+    <t>125.212.203.114/16060</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>Lỗi chuyển động</t>
+  </si>
+  <si>
+    <t>Khò lại Motion</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>ko chốt GSM</t>
+  </si>
+  <si>
+    <t>nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16883</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>Thiết bị hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Nước vào Oxi hóa mạch Không sửa</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1114,7 +1171,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1183,7 @@
     <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="44" style="22" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
@@ -1328,7 +1385,9 @@
       <c r="B6" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
@@ -1339,18 +1398,40 @@
       <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="H6" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="89"/>
       <c r="V6" s="98" t="s">
@@ -1367,7 +1448,9 @@
       <c r="B7" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="80" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
@@ -1378,7 +1461,9 @@
       <c r="G7" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="51"/>
+      <c r="H7" s="51" t="s">
+        <v>85</v>
+      </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="1"/>
@@ -1774,7 +1859,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,7 +2328,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,7 +2392,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4266,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4481,7 +4566,9 @@
       <c r="B6" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>50</v>
       </c>
@@ -4493,16 +4580,32 @@
         <v>70</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="66"/>
@@ -4951,7 +5054,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5260,7 +5363,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5452,7 +5555,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7411,8 +7514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7626,7 +7729,9 @@
       <c r="B6" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -7637,17 +7742,37 @@
       <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="H6" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
@@ -7665,7 +7790,9 @@
       <c r="B7" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="80" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
@@ -7676,17 +7803,37 @@
       <c r="G7" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="53"/>
+      <c r="H7" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="O7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
@@ -7702,7 +7849,9 @@
       <c r="B8" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="80" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>44</v>
       </c>
@@ -7714,16 +7863,34 @@
         <v>66</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="53"/>
+      <c r="I8" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="N8" s="55"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
+      <c r="O8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
@@ -8080,7 +8247,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8549,7 +8716,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8613,7 +8780,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GiaThanh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="31" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -279,9 +279,6 @@
     <t>ko chốt GSM</t>
   </si>
   <si>
-    <t>nâng cấp FW</t>
-  </si>
-  <si>
     <t>Lock: 203.162.69.18,16883</t>
   </si>
   <si>
@@ -308,11 +305,20 @@
   <si>
     <t>10/12/2020</t>
   </si>
+  <si>
+    <t>Không chốt GSM</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -812,30 +818,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,10 +839,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1170,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1202,43 +1208,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1283,58 +1289,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1359,24 +1365,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1386,7 +1392,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
@@ -1399,19 +1405,19 @@
         <v>66</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>79</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="53" t="s">
         <v>38</v>
@@ -1430,11 +1436,11 @@
         <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="89"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1449,7 +1455,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
@@ -1462,22 +1468,32 @@
         <v>66</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="1"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="89"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1506,7 +1522,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="89"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1551,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="89"/>
       <c r="U9" s="89"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1564,7 +1580,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="89"/>
       <c r="U10" s="89"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1593,7 +1609,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="89"/>
       <c r="U11" s="89"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1622,7 +1638,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="89"/>
       <c r="U12" s="89"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1653,7 +1669,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1682,7 +1698,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="89"/>
       <c r="U14" s="89"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1711,7 +1727,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="89"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1740,7 +1756,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="89"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1891,7 +1907,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2200,7 +2216,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,7 +2408,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,7 +2526,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2974,10 +2990,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3006,8 +3022,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3033,8 +3049,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -3151,7 +3167,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4321,6 +4337,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4331,16 +4357,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4352,7 +4368,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4383,43 +4399,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4464,58 +4480,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4540,24 +4556,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4567,7 +4583,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>50</v>
@@ -4609,7 +4625,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4640,7 +4656,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4669,7 +4685,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4698,7 +4714,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4727,7 +4743,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4756,7 +4772,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4785,7 +4801,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4816,7 +4832,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4845,7 +4861,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4874,7 +4890,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="66"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4903,7 +4919,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="66"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6137,10 +6153,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6169,8 +6185,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6196,8 +6212,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7484,6 +7500,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7494,16 +7520,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7514,8 +7530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7546,43 +7562,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -7627,58 +7643,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7703,24 +7719,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7730,7 +7746,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
@@ -7743,13 +7759,13 @@
         <v>66</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>77</v>
@@ -7758,7 +7774,7 @@
         <v>78</v>
       </c>
       <c r="M6" s="53" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
@@ -7776,7 +7792,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7791,7 +7807,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
@@ -7804,13 +7820,13 @@
         <v>66</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>77</v>
@@ -7819,7 +7835,7 @@
         <v>78</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N7" s="55"/>
       <c r="O7" s="53" t="s">
@@ -7837,7 +7853,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7850,7 +7866,7 @@
         <v>68</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>44</v>
@@ -7864,10 +7880,10 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>77</v>
@@ -7876,7 +7892,7 @@
         <v>78</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N8" s="55"/>
       <c r="O8" s="53" t="s">
@@ -7894,7 +7910,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7923,7 +7939,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7952,7 +7968,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7981,7 +7997,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8010,7 +8026,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8041,7 +8057,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8070,7 +8086,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8099,7 +8115,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8128,7 +8144,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9362,10 +9378,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9394,8 +9410,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9421,8 +9437,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10709,6 +10725,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10719,16 +10745,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10771,43 +10787,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10852,58 +10868,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10928,24 +10944,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10971,7 +10987,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11002,7 +11018,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11031,7 +11047,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11060,7 +11076,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11089,7 +11105,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11118,7 +11134,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11147,7 +11163,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11178,7 +11194,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11207,7 +11223,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11236,7 +11252,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11265,7 +11281,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12499,10 +12515,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12531,8 +12547,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12558,8 +12574,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13846,6 +13862,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -13856,16 +13882,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="31" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -818,6 +818,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,34 +863,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1208,43 +1208,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1289,58 +1289,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1365,24 +1365,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="89"/>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1493,7 +1493,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="89"/>
-      <c r="V7" s="91"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="89"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="89"/>
       <c r="U9" s="89"/>
-      <c r="V9" s="91"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="89"/>
       <c r="U10" s="89"/>
-      <c r="V10" s="91"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="89"/>
       <c r="U11" s="89"/>
-      <c r="V11" s="91"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="89"/>
       <c r="U12" s="89"/>
-      <c r="V12" s="90" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1669,7 +1669,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
-      <c r="V13" s="91"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="89"/>
       <c r="U14" s="89"/>
-      <c r="V14" s="91"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="89"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="89"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2990,10 +2990,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3022,8 +3022,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3049,8 +3049,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4337,6 +4337,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4347,16 +4357,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4367,8 +4367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4399,43 +4399,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4480,58 +4480,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4556,24 +4556,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4625,7 +4625,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4656,7 +4656,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="91"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4714,7 +4714,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="91"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4743,7 +4743,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="91"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="91"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="90" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4832,7 +4832,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="91"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="91"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="66"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4919,7 +4919,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="66"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6153,10 +6153,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6185,8 +6185,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6212,8 +6212,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7500,6 +7500,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7510,16 +7520,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7530,8 +7530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7562,43 +7562,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -7643,58 +7643,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7719,24 +7719,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7792,7 +7792,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7853,7 +7853,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="91"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7910,7 +7910,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7939,7 +7939,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="91"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="91"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7997,7 +7997,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="91"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8026,7 +8026,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="90" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8057,7 +8057,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="91"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="91"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8115,7 +8115,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8144,7 +8144,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9378,10 +9378,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9410,8 +9410,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9437,8 +9437,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10725,6 +10725,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10735,16 +10745,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10755,8 +10755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10787,43 +10787,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10868,58 +10868,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10944,50 +10944,82 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="52">
+        <v>868926034002821</v>
+      </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10998,27 +11030,49 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="52">
+        <v>868345031039613</v>
+      </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>84</v>
+      </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="1"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="91"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11027,27 +11081,53 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="52">
+        <v>860906041204451</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>70</v>
+      </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="I8" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="56"/>
+      <c r="M8" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11056,27 +11136,57 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="52">
+        <v>867717030816461</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="G9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="O9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="91"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11085,27 +11195,57 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="52">
+        <v>867717030548300</v>
+      </c>
       <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="G10" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="91"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11114,27 +11254,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="52">
+        <v>867717030420047</v>
+      </c>
       <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="G11" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="I11" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="91"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11163,7 +11331,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="90" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11194,7 +11362,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="91"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11223,7 +11391,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="91"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11252,7 +11420,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11281,7 +11449,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11400,7 +11568,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11432,7 +11600,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11741,7 +11909,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11869,7 +12037,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11933,7 +12101,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12051,7 +12219,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12168,7 +12336,7 @@
       </c>
       <c r="W45" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12200,7 +12368,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12264,7 +12432,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12515,10 +12683,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12547,8 +12715,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12574,8 +12742,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -12692,7 +12860,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13862,6 +14030,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13872,16 +14050,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
